--- a/trunk/Documentation/Logs/log_erik.xlsx
+++ b/trunk/Documentation/Logs/log_erik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -45,14 +45,54 @@
     <t>Transparency of images</t>
   </si>
   <si>
-    <t>Analysation</t>
+    <t>Creation of tiles</t>
+  </si>
+  <si>
+    <t>Drawing of tiles</t>
+  </si>
+  <si>
+    <t>Total hours</t>
+  </si>
+  <si>
+    <t>Fasting drawing transparency</t>
+  </si>
+  <si>
+    <t>Level structure</t>
+  </si>
+  <si>
+    <t>Analysation + design</t>
+  </si>
+  <si>
+    <t>Analysation + realisation</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>Transparent tiles</t>
+  </si>
+  <si>
+    <t>Analysation + design + realisation</t>
+  </si>
+  <si>
+    <t>Paralax scrolling</t>
+  </si>
+  <si>
+    <t>Tilemanager + tiles class</t>
+  </si>
+  <si>
+    <t>Erik Peters - s1009554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +108,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,15 +139,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -388,149 +476,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(D4:D30)</f>
+        <v>2.2430555555555549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>40212</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B4" s="8">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D4" s="9">
+        <f>C4-B4</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>40213</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>40214</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>40217</v>
+        <v>40213</v>
       </c>
       <c r="B5" s="3">
         <v>0.41666666666666669</v>
       </c>
+      <c r="C5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>40214</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7">
+        <v>40217</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>40219</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>40220</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
+      <c r="A10" s="7">
+        <v>40225</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>40226</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>40227</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7">
+        <v>40238</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>40240</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>40241</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15625000000000006</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Documentation/Logs/log_erik.xlsx
+++ b/trunk/Documentation/Logs/log_erik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,48 @@
   </si>
   <si>
     <t>Erik Peters - s1009554</t>
+  </si>
+  <si>
+    <t>Realisation and Design</t>
+  </si>
+  <si>
+    <t>Design multiple kinds of surfaces, enemy implementation</t>
+  </si>
+  <si>
+    <t>Enemy factory</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Tiles for the snow level</t>
+  </si>
+  <si>
+    <t>Snowlevel implementation, all tiles and some surfaces</t>
+  </si>
+  <si>
+    <t>Snowlevel</t>
+  </si>
+  <si>
+    <t>SnowLevel, Render optimization</t>
+  </si>
+  <si>
+    <t>Analysis and Realisation</t>
+  </si>
+  <si>
+    <t>Bug list, HUD, Snow level, bug fixing, SDL fix</t>
+  </si>
+  <si>
+    <t>Bug fixing, sounds</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Illness (19-3 until 29-3)</t>
+  </si>
+  <si>
+    <t>(Slijmbeurontsteking)</t>
   </si>
 </sst>
 </file>
@@ -89,8 +131,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -163,13 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,11 +219,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -476,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +530,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
@@ -500,8 +543,8 @@
         <v>11</v>
       </c>
       <c r="F1" s="5">
-        <f>SUM(D4:D30)</f>
-        <v>2.2430555555555549</v>
+        <f>SUM(D4:D27)</f>
+        <v>4.0451388888888884</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -556,7 +599,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D27" si="0">C5-B5</f>
         <v>0.20833333333333331</v>
       </c>
       <c r="E5" t="s">
@@ -744,7 +787,7 @@
       <c r="C14" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.23958333333333337</v>
       </c>
@@ -765,7 +808,7 @@
       <c r="C15" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.15625000000000006</v>
       </c>
@@ -777,52 +820,217 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="D30" s="4"/>
+      <c r="A16" s="2">
+        <v>40247</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>40248</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>40252</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.19791666666666669</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>40254</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>40255</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>40273</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>40275</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
